--- a/Documents/Progress.xlsx
+++ b/Documents/Progress.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8CA496-238A-490D-84CA-DF416A9D1D63}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A8BFDB-C909-4CEE-920F-73238516494D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Breakdown" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>Acceptance Test</t>
   </si>
@@ -60,6 +60,69 @@
   </si>
   <si>
     <t>Total Tasks</t>
+  </si>
+  <si>
+    <t>AT:18.1</t>
+  </si>
+  <si>
+    <t>T:18.1.1</t>
+  </si>
+  <si>
+    <t>Create the "editing the date" UI</t>
+  </si>
+  <si>
+    <t>T:18.1.2</t>
+  </si>
+  <si>
+    <t>AT:18.2</t>
+  </si>
+  <si>
+    <t>T:18.2.1</t>
+  </si>
+  <si>
+    <t>AT:18.3</t>
+  </si>
+  <si>
+    <t>T:18.3.1</t>
+  </si>
+  <si>
+    <t>T:18.3.2</t>
+  </si>
+  <si>
+    <t>Create a new election object with the date we want (a past date)</t>
+  </si>
+  <si>
+    <t>Create a new election object with the date we want (a future date)</t>
+  </si>
+  <si>
+    <t>Use an existing election object and change its date</t>
+  </si>
+  <si>
+    <t>AT:3.1</t>
+  </si>
+  <si>
+    <t>T:3.1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use an existing election object </t>
+  </si>
+  <si>
+    <t>T:3.1.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create an admin object and freeze the election </t>
+  </si>
+  <si>
+    <t>AT:3.2</t>
+  </si>
+  <si>
+    <t>T:3.2.1</t>
+  </si>
+  <si>
+    <t>Use an existing election object that we froze before</t>
+  </si>
+  <si>
+    <t>T:3.2.2</t>
   </si>
 </sst>
 </file>
@@ -123,13 +186,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -411,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +521,101 @@
         <v>7</v>
       </c>
     </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -465,7 +626,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B656BDF6-AAF1-490D-8A84-473F1C924D11}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Progress.xlsx
+++ b/Documents/Progress.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A8BFDB-C909-4CEE-920F-73238516494D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90080E92-0B40-4D91-B422-CCEAD42911A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Breakdown" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="50">
   <si>
     <t>Acceptance Test</t>
   </si>
@@ -123,6 +123,54 @@
   </si>
   <si>
     <t>T:3.2.2</t>
+  </si>
+  <si>
+    <t>AT:1.1</t>
+  </si>
+  <si>
+    <t>Create Election Class</t>
+  </si>
+  <si>
+    <t>T:1.1.1</t>
+  </si>
+  <si>
+    <t>T:1.1.2</t>
+  </si>
+  <si>
+    <t>Create the Question class</t>
+  </si>
+  <si>
+    <t>T:1.1.3</t>
+  </si>
+  <si>
+    <t>Create tests for Election Class</t>
+  </si>
+  <si>
+    <t>T:1.1.4</t>
+  </si>
+  <si>
+    <t>Create tests for the Question Class</t>
+  </si>
+  <si>
+    <t>Create and wire up the Firestore</t>
+  </si>
+  <si>
+    <t>T:1.1.5</t>
+  </si>
+  <si>
+    <t>T:1.1.6</t>
+  </si>
+  <si>
+    <t>T:1.1.7</t>
+  </si>
+  <si>
+    <t>Integrate Firestore with the Election creation UI</t>
+  </si>
+  <si>
+    <t>Integrate the Election and Question class with the Election creation UI</t>
+  </si>
+  <si>
+    <t>Create relevant abstract classes</t>
   </si>
 </sst>
 </file>
@@ -186,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -197,6 +245,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -477,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,6 +663,142 @@
       </c>
       <c r="C11" s="3" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="4">
+        <v>43515</v>
+      </c>
+      <c r="G12" s="4">
+        <v>43515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43516</v>
+      </c>
+      <c r="G13" s="4">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43516</v>
+      </c>
+      <c r="G14" s="4">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="4">
+        <v>43516</v>
+      </c>
+      <c r="G15" s="4">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="4">
+        <v>43516</v>
+      </c>
+      <c r="G16" s="4">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="4">
+        <v>43516</v>
+      </c>
+      <c r="G17" s="4">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="4">
+        <v>43519</v>
+      </c>
+      <c r="G18" s="4">
+        <v>43520</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43519</v>
+      </c>
+      <c r="G19" s="4">
+        <v>43520</v>
       </c>
     </row>
   </sheetData>
